--- a/exps/table-v6/comparison.xlsx
+++ b/exps/table-v6/comparison.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+  <si>
+    <t>iteration</t>
+  </si>
   <si>
     <t>图像+部分语义</t>
   </si>
@@ -35,12 +38,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,15 +53,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -71,25 +73,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,9 +98,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,6 +111,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -138,9 +157,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,45 +190,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -209,6 +205,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -221,25 +313,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,139 +367,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,36 +396,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,8 +417,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,17 +466,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -494,9 +488,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,148 +501,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,6 +1054,24 @@
                 <c:pt idx="8">
                   <c:v>0.84407927</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84685261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.855748399999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84948923</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85895962</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85156205</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85568421</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1275,6 +1289,42 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.810569619999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.827130189999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83821762</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84405107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85135933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.855094009999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.854631889999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85524492</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.856208749999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.860175989999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85493793</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85600588</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.865547789999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,7 +2407,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -2366,7 +2416,10 @@
     <col min="2" max="3" width="11.7777777777778"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1">
         <v>10000</v>
       </c>
@@ -2415,7 +2468,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0.79924141</v>
@@ -2463,9 +2516,9 @@
         <v>0.86389934</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0.782317219999999</v>
@@ -2493,22 +2546,76 @@
       </c>
       <c r="J3">
         <v>0.84407927</v>
+      </c>
+      <c r="K3">
+        <v>0.84685261</v>
+      </c>
+      <c r="L3">
+        <v>0.855748399999999</v>
+      </c>
+      <c r="M3">
+        <v>0.84948923</v>
+      </c>
+      <c r="N3">
+        <v>0.85895962</v>
+      </c>
+      <c r="O3">
+        <v>0.85156205</v>
+      </c>
+      <c r="P3">
+        <v>0.85568421</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0.79778949</v>
       </c>
       <c r="C5">
         <v>0.810569619999999</v>
+      </c>
+      <c r="D5">
+        <v>0.827130189999999</v>
+      </c>
+      <c r="E5">
+        <v>0.83821762</v>
+      </c>
+      <c r="F5">
+        <v>0.84405107</v>
+      </c>
+      <c r="G5">
+        <v>0.85135933</v>
+      </c>
+      <c r="H5">
+        <v>0.855094009999999</v>
+      </c>
+      <c r="I5">
+        <v>0.854631889999999</v>
+      </c>
+      <c r="J5">
+        <v>0.85524492</v>
+      </c>
+      <c r="K5">
+        <v>0.856208749999999</v>
+      </c>
+      <c r="L5">
+        <v>0.860175989999999</v>
+      </c>
+      <c r="M5">
+        <v>0.85493793</v>
+      </c>
+      <c r="N5">
+        <v>0.85600588</v>
+      </c>
+      <c r="O5">
+        <v>0.865547789999999</v>
       </c>
     </row>
   </sheetData>

--- a/exps/table-v6/comparison.xlsx
+++ b/exps/table-v6/comparison.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>iteration</t>
   </si>
@@ -27,9 +27,6 @@
     <t>图像+全部语义1</t>
   </si>
   <si>
-    <t>图像+全部语义2</t>
-  </si>
-  <si>
     <t>图像</t>
   </si>
 </sst>
@@ -38,8 +35,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -59,6 +56,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -73,8 +78,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -89,8 +101,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,40 +153,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,14 +166,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,22 +187,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,13 +202,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,7 +370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,157 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,54 +393,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,6 +421,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -486,13 +479,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,10 +501,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -516,133 +513,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,7 +1083,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>图像+全部语义2</c:v>
+                  <c:v>图像</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1178,112 +1175,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>图像</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$P$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$P$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.79778949</c:v>
                 </c:pt>
@@ -1325,6 +1216,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.865547789999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.865602339999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,13 +1982,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>182245</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>6985</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -2103,8 +1997,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="609600" y="1455420"/>
-        <a:ext cx="5935345" cy="3489325"/>
+        <a:off x="609600" y="1272540"/>
+        <a:ext cx="7078345" cy="3489325"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2404,16 +2298,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
-    <col min="2" max="3" width="11.7777777777778"/>
+    <col min="2" max="16" width="11.7777777777778"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2566,56 +2460,54 @@
         <v>0.85568421</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="B4">
         <v>0.79778949</v>
       </c>
-      <c r="C5">
+      <c r="C4">
         <v>0.810569619999999</v>
       </c>
-      <c r="D5">
+      <c r="D4">
         <v>0.827130189999999</v>
       </c>
-      <c r="E5">
+      <c r="E4">
         <v>0.83821762</v>
       </c>
-      <c r="F5">
+      <c r="F4">
         <v>0.84405107</v>
       </c>
-      <c r="G5">
+      <c r="G4">
         <v>0.85135933</v>
       </c>
-      <c r="H5">
+      <c r="H4">
         <v>0.855094009999999</v>
       </c>
-      <c r="I5">
+      <c r="I4">
         <v>0.854631889999999</v>
       </c>
-      <c r="J5">
+      <c r="J4">
         <v>0.85524492</v>
       </c>
-      <c r="K5">
+      <c r="K4">
         <v>0.856208749999999</v>
       </c>
-      <c r="L5">
+      <c r="L4">
         <v>0.860175989999999</v>
       </c>
-      <c r="M5">
+      <c r="M4">
         <v>0.85493793</v>
       </c>
-      <c r="N5">
+      <c r="N4">
         <v>0.85600588</v>
       </c>
-      <c r="O5">
+      <c r="O4">
         <v>0.865547789999999</v>
+      </c>
+      <c r="P4">
+        <v>0.865602339999999</v>
       </c>
     </row>
   </sheetData>
